--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9D061-03E8-48F1-86FD-25D5D740DF1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46840F18-BB97-4C08-BE1C-F9B814E164D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -532,6 +532,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,7 +874,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1573,7 @@
         <v>111</v>
       </c>
       <c r="F31" s="11">
-        <v>0.35</v>
+        <v>2.35</v>
       </c>
       <c r="G31" s="20">
         <v>0.4</v>
@@ -1593,7 +1596,7 @@
       <c r="E32" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="21">
         <v>0.53</v>
       </c>
       <c r="G32" s="20">
@@ -1618,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="F33" s="11">
-        <v>0.27</v>
+        <v>0.77</v>
       </c>
       <c r="G33" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46840F18-BB97-4C08-BE1C-F9B814E164D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74B722-408B-4E96-A1B3-6F48C299C61D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1263,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="11">
-        <v>14.56</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="G18" s="20">
         <v>0.4</v>
@@ -1287,7 +1287,7 @@
         <v>111</v>
       </c>
       <c r="F19" s="11">
-        <v>5.82</v>
+        <v>6.82</v>
       </c>
       <c r="G19" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74B722-408B-4E96-A1B3-6F48C299C61D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09063478-E21B-41C4-B26A-2102D61DDC23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1065,7 @@
         <v>111</v>
       </c>
       <c r="F10" s="11">
-        <v>9.75</v>
+        <v>13.75</v>
       </c>
       <c r="G10" s="20">
         <v>0.4</v>
@@ -1091,7 +1091,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="11">
-        <v>9.26</v>
+        <v>13.26</v>
       </c>
       <c r="G11" s="20">
         <v>0.4</v>
@@ -1573,7 +1573,7 @@
         <v>111</v>
       </c>
       <c r="F31" s="11">
-        <v>2.35</v>
+        <v>3.35</v>
       </c>
       <c r="G31" s="20">
         <v>0.4</v>
@@ -1621,7 +1621,7 @@
         <v>111</v>
       </c>
       <c r="F33" s="11">
-        <v>0.77</v>
+        <v>1.77</v>
       </c>
       <c r="G33" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09063478-E21B-41C4-B26A-2102D61DDC23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB47C9-580F-4060-90BD-0ED41710B037}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -874,7 +877,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1624,7 @@
         <v>111</v>
       </c>
       <c r="F33" s="11">
-        <v>1.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="G33" s="20">
         <v>0.4</v>
@@ -1636,7 +1639,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>

--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB47C9-580F-4060-90BD-0ED41710B037}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F222A3-264F-4073-A288-37B436C230B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
         <v>111</v>
       </c>
       <c r="F5" s="11">
-        <v>0.44</v>
+        <v>5.44</v>
       </c>
       <c r="G5" s="20">
         <v>0.4</v>
@@ -1552,7 +1552,7 @@
         <v>111</v>
       </c>
       <c r="F30" s="11">
-        <v>0.63</v>
+        <v>6.63</v>
       </c>
       <c r="G30" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 5/Plantilla de Casos de Uso .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F222A3-264F-4073-A288-37B436C230B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D138DF-31D2-453C-9221-CD198707B335}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,12 +343,6 @@
     <t>En este caso de uso el Maestro registrará una nueva Promoción y sus detalles, dicha Promoción podrá ser aplicada cuando se realicé el registro de un pago, ya sea de Inscripción o de Mensualidad</t>
   </si>
   <si>
-    <t>En este caso de uso el Director creará un nuevo Grupo que tomará clases en las instalaciones, a dicho Grupo se le asignaran: un Maestro, horario y tipo de danza</t>
-  </si>
-  <si>
-    <t>En este caso de uso el Director cambia la asignación del Maestro, horario y/o tipo de danza de un Grupo que haya seleccionado</t>
-  </si>
-  <si>
     <t>En este caso de uso el Director podrá eliminar un grupo que haya seleccionado.</t>
   </si>
   <si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>Se modificó el diagrama de robustez debido a que faltaban inlcuir fronteras y controles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este caso de uso el Director creará un nuevo Grupo que tomará clases en las instalaciones, a dicho Grupo se le asignaran: un nombre, un Maestro, un monto de inscripción y de mensualidad </t>
+  </si>
+  <si>
+    <t>En este caso de uso el Director cambia la asignación del nombre del grupo, maestro y montos del grupo que haya seleccionado</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="11">
         <v>5.44</v>
@@ -967,7 +967,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="11">
         <v>0.66</v>
@@ -991,7 +991,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="11">
         <v>0.22</v>
@@ -1015,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11">
         <v>0.37</v>
@@ -1039,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="11">
         <v>14.16</v>
@@ -1051,7 +1051,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>52</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11">
         <v>13.75</v>
@@ -1077,7 +1077,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="11">
         <v>13.26</v>
@@ -1103,7 +1103,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="11">
         <v>16.29</v>
@@ -1129,7 +1129,7 @@
         <v>68</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="11">
         <v>0.41</v>
@@ -1161,16 +1161,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G14" s="20">
         <v>0.4</v>
@@ -1185,16 +1185,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11">
-        <v>21.33</v>
+        <v>24.33</v>
       </c>
       <c r="G15" s="20">
         <v>0.4</v>
@@ -1209,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="11">
         <v>15.58</v>
@@ -1233,13 +1233,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="11">
         <v>23.5</v>
@@ -1263,7 +1263,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="11">
         <v>16.559999999999999</v>
@@ -1287,7 +1287,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="11">
         <v>6.82</v>
@@ -1309,7 +1309,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" s="11">
         <v>11.75</v>
@@ -1333,7 +1333,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>72</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>42</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="11">
         <v>0.57999999999999996</v>
@@ -1429,7 +1429,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="11">
         <v>9.6999999999999993</v>
@@ -1447,13 +1447,13 @@
         <v>44</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="11">
         <v>0.16</v>
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="11">
         <v>0.55000000000000004</v>
@@ -1495,13 +1495,13 @@
         <v>46</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="11">
         <v>0.26</v>
@@ -1522,10 +1522,10 @@
         <v>94</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="11">
         <v>0.66</v>
@@ -1543,16 +1543,16 @@
         <v>48</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F30" s="11">
-        <v>6.63</v>
+        <v>10.63</v>
       </c>
       <c r="G30" s="20">
         <v>0.4</v>
@@ -1573,7 +1573,7 @@
         <v>67</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="11">
         <v>3.35</v>
@@ -1591,16 +1591,16 @@
         <v>77</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21">
-        <v>0.53</v>
+        <v>4.53</v>
       </c>
       <c r="G32" s="20">
         <v>0.4</v>
@@ -1621,7 +1621,7 @@
         <v>79</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" s="11">
         <v>4.7699999999999996</v>
